--- a/03-30-25 to 04-05-25 Madison Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Madison Schedule.xlsx
@@ -1425,7 +1425,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1501,15 +1501,10 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
@@ -1597,10 +1592,15 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1819,16 +1819,10 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van,
-Train Sophia</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
@@ -1896,10 +1890,16 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van,
+Train Sophia</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
@@ -1984,14 +1984,10 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
@@ -2075,12 +2071,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -2154,13 +2150,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
@@ -2235,12 +2230,13 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
@@ -2315,12 +2311,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
@@ -2382,13 +2378,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>@ Store,
-3rd week</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
@@ -2438,12 +2433,13 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+3rd week</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
@@ -2482,9 +2478,21 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
@@ -2573,11 +2581,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
@@ -2622,7 +2626,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2682,7 +2686,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1034 OSHKOSH</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2742,7 +2746,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>855 N WESTHAVEN DRIVE</t>
+          <t>AURORA OUTPATIENT RX #1034 OSHKOSH</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2797,7 +2801,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ou1bNnEAEqhJBJAM8</t>
+          <t>855 N WESTHAVEN DRIVE</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2852,7 +2856,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Check in w/ Jeremiah after Aurora</t>
+          <t>https://goo.gl/maps/ou1bNnEAEqhJBJAM8</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2923,7 +2927,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>5:15 am meet for Sarah &amp; Lori at Pig Waupun</t>
+          <t>Check in w/ Jeremiah after Aurora</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -3004,14 +3008,10 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/j4XjnfGU52i2moHbA</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>&lt;--Link for Pig Waupun</t>
-        </is>
-      </c>
+          <t>5:15 am meet for Sarah &amp; Lori at Pig Waupun</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
@@ -3078,8 +3078,16 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/j4XjnfGU52i2moHbA</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>&lt;--Link for Pig Waupun</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
@@ -3145,21 +3153,9 @@
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Driver, Equip</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
@@ -3218,17 +3214,17 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>@ Waupun</t>
+          <t>Driver, Equip</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
@@ -3288,9 +3284,21 @@
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>@ Waupun</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
@@ -3396,11 +3404,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
@@ -3445,7 +3449,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3496,7 +3500,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>OSHKOSH FOOD CO-OP</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3547,7 +3551,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>155 JACKSON ST, SUITE 101</t>
+          <t>OSHKOSH FOOD CO-OP</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3598,7 +3602,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/es93zaJzLRirraGv8</t>
+          <t>155 JACKSON ST, SUITE 101</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3643,7 +3647,11 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/es93zaJzLRirraGv8</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
@@ -3697,21 +3705,9 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
@@ -3758,17 +3754,17 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L56" t="inlineStr"/>
@@ -3834,12 +3830,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3889,12 +3885,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Shannon</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3949,12 +3945,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Shannon</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3998,9 +3994,21 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>

--- a/03-30-25 to 04-05-25 Madison Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y85"/>
+  <dimension ref="A1:Y86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1941,12 +1941,12 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store w/ Lori</t>
         </is>
       </c>
       <c r="X26" t="inlineStr"/>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -2112,9 +2112,21 @@
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -2131,7 +2143,8 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Train Pamela</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -2274,11 +2287,7 @@
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2291,12 +2300,13 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+1st Financial work w/ Jerry</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -2343,7 +2353,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2351,9 +2361,21 @@
       <c r="Y31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
@@ -2398,7 +2420,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>KELLEY #54, LAKE GENEVA MOBIL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2458,7 +2480,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>350 N EDWARDS BLVD</t>
+          <t>KELLEY #54, LAKE GENEVA MOBIL</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2467,11 +2489,7 @@
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>5:00 AM START</t>
-        </is>
-      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
@@ -2513,7 +2531,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TTcKoRubQafC34nS9</t>
+          <t>350 N EDWARDS BLVD</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2524,7 +2542,7 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>5:00 AM START</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -2556,7 +2574,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:30 am at IL Office</t>
+          <t>https://goo.gl/maps/TTcKoRubQafC34nS9</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2567,7 +2585,7 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>OUTPOST NATURAL FOODS, MILWAUKEE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -2601,7 +2619,11 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>*IL Meet is 5:30 am at IL Office</t>
+        </is>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2610,7 +2632,7 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>100 E CAPITOL DR</t>
+          <t>OUTPOST NATURAL FOODS, MILWAUKEE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -2647,22 +2669,9 @@
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>@ Store,
-Camry 3</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2670,7 +2679,7 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/n94xpFtHzvE2</t>
+          <t>100 E CAPITOL DR</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2709,18 +2718,18 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>Driver,
-Gray Van</t>
+          <t>@ Store,
+Camry 3</t>
         </is>
       </c>
       <c r="X38" t="inlineStr"/>
@@ -2730,7 +2739,7 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>*IL Meet is 3:30 am at IL Office</t>
+          <t>https://goo.gl/maps/n94xpFtHzvE2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2773,21 +2782,30 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>*IL Meet is 3:30 am at IL Office</t>
+        </is>
+      </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
@@ -2816,12 +2834,12 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2829,21 +2847,9 @@
       <c r="Y40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
@@ -2895,12 +2901,12 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2910,15 +2916,19 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
@@ -2956,17 +2966,25 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>@ Waupun, Driver 1/2</t>
+          <t>@ Store w/ Lori</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
@@ -2974,20 +2992,15 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
@@ -3032,12 +3045,12 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Driver 1/2</t>
+          <t>@ Waupun, Driver 1/2</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -3050,12 +3063,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3108,12 +3121,12 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -3126,15 +3139,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
@@ -3180,7 +3198,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3196,8 +3214,16 @@
       <c r="Y45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
@@ -3247,7 +3273,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3324,7 +3350,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3341,11 +3367,7 @@
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>5:00 AM START</t>
-        </is>
-      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
@@ -3375,7 +3397,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3394,7 +3416,7 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>5:00 AM START</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -3418,7 +3440,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3437,7 +3459,7 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>OUTPOST NATURAL FOODS, WAUWATOSA</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -3469,7 +3491,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3488,7 +3510,7 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7000 W STATE ST</t>
+          <t>OUTPOST NATURAL FOODS, WAUWATOSA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -3520,7 +3542,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3539,7 +3561,7 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9Apjjj8M6672</t>
+          <t>7000 W STATE ST</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -3571,7 +3593,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3590,7 +3612,7 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>*IL Meet is 3:30 am at IL Office</t>
+          <t>https://goo.gl/maps/9Apjjj8M6672</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -3622,7 +3644,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Nikki</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3639,7 +3661,11 @@
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>*IL Meet is 3:30 am at IL Office</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
@@ -3669,7 +3695,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Nikki</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3685,21 +3711,9 @@
       <c r="Y54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
@@ -3720,7 +3734,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -3738,15 +3752,19 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
@@ -3791,7 +3809,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -3809,20 +3827,15 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
@@ -3851,14 +3864,26 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
@@ -3869,12 +3894,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -3906,7 +3931,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3924,18 +3949,18 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima</t>
+Silver Van</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -3966,17 +3991,13 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
@@ -3986,8 +4007,16 @@
       <c r="Y59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr"/>
-      <c r="B60" t="inlineStr"/>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
@@ -4017,7 +4046,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -4025,7 +4054,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -4037,9 +4066,22 @@
       <c r="Y60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
@@ -4056,7 +4098,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -4064,7 +4106,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>KELLEY #29, HARRISON MOBIL, ROCKFORD</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -4088,14 +4130,22 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>2624 STOWMARKET AVE</t>
+          <t>KELLEY #29, HARRISON MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -4126,7 +4176,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/TWcmQi6rhorxKU6J8</t>
+          <t>2624 STOWMARKET AVE</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -4157,7 +4207,7 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>*JEFF IS THE DM</t>
+          <t>https://maps.app.goo.gl/TWcmQi6rhorxKU6J8</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -4186,7 +4236,11 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>*JEFF IS THE DM</t>
+        </is>
+      </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
@@ -4212,21 +4266,9 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>Camry 3 available, Equip</t>
-        </is>
-      </c>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
@@ -4253,15 +4295,19 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>Camry 3 available, Equip</t>
+        </is>
+      </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
@@ -4288,12 +4334,12 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -4323,12 +4369,12 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -4358,12 +4404,12 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -4393,12 +4439,12 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -4426,8 +4472,16 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
@@ -4481,11 +4535,7 @@
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
@@ -4514,7 +4564,7 @@
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
@@ -4545,7 +4595,7 @@
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>KELLEY #09, BROADWAY MOBIL, ROCKFORD</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
@@ -4576,7 +4626,7 @@
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr">
         <is>
-          <t>2605 BROADWAY</t>
+          <t>KELLEY #09, BROADWAY MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
@@ -4607,7 +4657,7 @@
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/o8A3d3WmDrS2</t>
+          <t>2605 BROADWAY</t>
         </is>
       </c>
       <c r="S78" t="inlineStr"/>
@@ -4638,7 +4688,7 @@
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr">
         <is>
-          <t>*6:15 am meet at office for this store  (limited parking)</t>
+          <t>https://goo.gl/maps/o8A3d3WmDrS2</t>
         </is>
       </c>
       <c r="S79" t="inlineStr"/>
@@ -4667,7 +4717,11 @@
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>*6:15 am meet at office for this store  (limited parking)</t>
+        </is>
+      </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
@@ -4693,21 +4747,9 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
@@ -4734,18 +4776,17 @@
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>Driver,
-Gray Van</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T82" t="inlineStr"/>
@@ -4774,15 +4815,20 @@
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr"/>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
@@ -4809,12 +4855,12 @@
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S84" t="inlineStr"/>
@@ -4844,19 +4890,15 @@
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
@@ -4864,6 +4906,45 @@
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr"/>
     </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/03-30-25 to 04-05-25 Madison Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Madison Schedule.xlsx
@@ -1682,7 +1682,8 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Train Pamela</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -2087,12 +2088,13 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+5th Scan, work w/ Jerry</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -2179,7 +2181,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2260,13 +2262,12 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>@ Store,
-3rd week</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
@@ -2306,7 +2307,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t>@ Store,
-1st Financial work w/ Jerry</t>
+4th Scan work w/ Jerry</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -2337,12 +2338,13 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+3rd week</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
@@ -2409,9 +2411,21 @@
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
@@ -2513,11 +2527,7 @@
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -2558,7 +2568,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2605,7 +2615,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>MAURER'S MARKET, WISCONSIN DELLS</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2656,7 +2666,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>216 WASHINGTON AVE</t>
+          <t>MAURER'S MARKET, WISCONSIN DELLS</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2703,7 +2713,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CXVPLJR1DyH2</t>
+          <t>216 WASHINGTON AVE</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2763,7 +2773,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:00 am at IL Office</t>
+          <t>https://goo.gl/maps/CXVPLJR1DyH2</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2825,7 +2835,11 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>*IL Meet is 5:00 am at IL Office</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
@@ -2867,21 +2881,9 @@
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
@@ -2944,18 +2946,17 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
@@ -3028,15 +3029,20 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3104,12 +3110,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -3177,19 +3183,15 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3256,15 +3258,19 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
@@ -3328,20 +3334,15 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
@@ -3386,9 +3387,22 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
@@ -3477,11 +3491,7 @@
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
@@ -3530,7 +3540,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3581,7 +3591,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>KELLEY #35, LYFORD MOBIL, ROCKFORD</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3632,7 +3642,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>8061 E STATE ST</t>
+          <t>KELLEY #35, LYFORD MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3683,7 +3693,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/kRn7nT8C7Vk</t>
+          <t>8061 E STATE ST</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3724,7 +3734,11 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/kRn7nT8C7Vk</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
@@ -3786,21 +3800,9 @@
         </is>
       </c>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
@@ -3859,15 +3861,19 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
@@ -3926,12 +3932,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3986,12 +3992,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -4041,12 +4047,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -4093,12 +4099,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -4132,12 +4138,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -4169,8 +4175,16 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>

--- a/03-30-25 to 04-05-25 Madison Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Madison Schedule.xlsx
@@ -702,7 +702,7 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>Gray Van to Anderson Dodge (for service on Monday)</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
@@ -751,11 +751,7 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
@@ -804,7 +800,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>FESTIVAL #2737, VERONA - LIFO</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -855,7 +851,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>660 HOMETOWN CIRCLE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -906,7 +902,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/uMWf8LjrrGkj4TXq9</t>
+          <t>FESTIVAL #2737, VERONA - LIFO</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -953,7 +949,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:15 am at IL Office</t>
+          <t>660 HOMETOWN CIRCLE</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -1008,7 +1004,7 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>*Meet for NATE / EVELIN / JUSTIN IS 4:45 AM</t>
+          <t>https://goo.gl/maps/uMWf8LjrrGkj4TXq9</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
@@ -1065,7 +1061,11 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>*IL Meet is 5:15 am at IL Office</t>
+        </is>
+      </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
@@ -1144,22 +1144,13 @@
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima, Equip</t>
-        </is>
-      </c>
+          <t>*Meet for NATE / EVELIN / JUSTIN IS 4:45 AM</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
@@ -1224,16 +1215,8 @@
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>Anisha</t>
-        </is>
-      </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
@@ -1307,17 +1290,18 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>Driver, Silver Van</t>
+          <t>Driver, 1/2
+Optima, Equip</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -1380,19 +1364,15 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1461,15 +1441,20 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Driver, 
+Silver Van</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1542,18 +1527,17 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
@@ -1633,12 +1617,12 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1707,15 +1691,20 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1780,19 +1769,15 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>w/ Nate/Ev</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1859,12 +1844,12 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1898,7 +1883,7 @@
         <is>
           <t>Driver, 1/2
 Gray Van,
-Train Sophia</t>
+Train NasZire</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1937,17 +1922,17 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>@ Store w/ Lori</t>
+          <t>w/ Nate/Ev</t>
         </is>
       </c>
       <c r="X26" t="inlineStr"/>
@@ -2024,19 +2009,15 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -2116,17 +2097,17 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store w/ Lori</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -2207,9 +2188,21 @@
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -2287,9 +2280,21 @@
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -2353,11 +2358,7 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -2432,11 +2433,7 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
@@ -2469,13 +2466,13 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>@ Store,
-3rd week</t>
+3rd Scan, Train w/ Michael</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
@@ -2494,7 +2491,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>KELLEY #54, LAKE GENEVA MOBIL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2517,12 +2514,13 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+3rd week</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
@@ -2541,7 +2539,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>350 N EDWARDS BLVD</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2561,9 +2559,21 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>20)</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
@@ -2584,7 +2594,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TTcKoRubQafC34nS9</t>
+          <t>KELLEY #54, LAKE GENEVA MOBIL</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2631,7 +2641,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:30 am at IL Office</t>
+          <t>350 N EDWARDS BLVD</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2656,11 +2666,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -2680,7 +2686,11 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/TTcKoRubQafC34nS9</t>
+        </is>
+      </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2705,7 +2715,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2726,22 +2736,13 @@
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>@ Store,
-Camry 3</t>
-        </is>
-      </c>
+          <t>*IL Meet is 5:30 am at IL Office</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2765,7 +2766,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1034 OSHKOSH</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2790,22 +2791,9 @@
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Driver,
-Gray Van</t>
-        </is>
-      </c>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2829,7 +2817,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>855 N WESTHAVEN DRIVE</t>
+          <t>AURORA OUTPATIENT RX #1034 OSHKOSH</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2848,15 +2836,20 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>@ Store,
+Camry 3</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2876,7 +2869,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ou1bNnEAEqhJBJAM8</t>
+          <t>855 N WESTHAVEN DRIVE</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2903,15 +2896,20 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
     </row>
@@ -2939,7 +2937,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Check in w/ Jeremiah after Aurora</t>
+          <t>https://goo.gl/maps/ou1bNnEAEqhJBJAM8</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2978,12 +2976,12 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -3022,7 +3020,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>5:15 am meet for Sarah &amp; Lori at Pig Waupun</t>
+          <t>Check in w/ Jeremiah after Aurora</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -3060,8 +3058,16 @@
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Spencer P</t>
+        </is>
+      </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
@@ -3099,14 +3105,10 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/j4XjnfGU52i2moHbA</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>&lt;--Link for Pig Waupun</t>
-        </is>
-      </c>
+          <t>5:15 am meet for Sarah &amp; Lori at Pig Waupun</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
@@ -3136,8 +3138,16 @@
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
@@ -3178,8 +3188,16 @@
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/j4XjnfGU52i2moHbA</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>&lt;--Link for Pig Waupun</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
@@ -3240,21 +3258,9 @@
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Driver, Equip</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
@@ -3318,17 +3324,17 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>@ Waupun</t>
+          <t>Driver, Equip</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -3383,9 +3389,21 @@
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>@ Waupun</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
@@ -3483,11 +3501,7 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
@@ -3532,7 +3546,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3583,7 +3597,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>OSHKOSH FOOD CO-OP</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3634,7 +3648,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>155 JACKSON ST, SUITE 101</t>
+          <t>OSHKOSH FOOD CO-OP</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3685,7 +3699,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/es93zaJzLRirraGv8</t>
+          <t>155 JACKSON ST, SUITE 101</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3730,7 +3744,11 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/es93zaJzLRirraGv8</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
@@ -3784,21 +3802,9 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
@@ -3845,17 +3851,17 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
@@ -3916,12 +3922,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3976,12 +3982,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Shannon</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4031,12 +4037,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Shannon</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4093,9 +4099,21 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>

--- a/03-30-25 to 04-05-25 Madison Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Madison Schedule.xlsx
@@ -505,7 +505,14 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Scan product if shelf tag won’t scan.
+Use Category 000
+No prices on DCs—Qty only
+For Not On File: force in with qty, put one in cart with price on a sticky note.+</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>

--- a/03-30-25 to 04-05-25 Madison Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Madison Schedule.xlsx
@@ -4033,10 +4033,15 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
@@ -4085,22 +4090,9 @@
       <c r="Y60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>

--- a/03-30-25 to 04-05-25 Madison Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Madison Schedule.xlsx
@@ -1267,7 +1267,7 @@
         <is>
           <t>Driver,
 Silver Van,
-Supv Rx</t>
+Rx</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
@@ -2065,7 +2065,8 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>

--- a/03-30-25 to 04-05-25 Madison Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Madison Schedule.xlsx
@@ -2251,8 +2251,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>

--- a/03-30-25 to 04-05-25 Madison Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Madison Schedule.xlsx
@@ -1281,7 +1281,11 @@
           <t>Josh S</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>work w/ Michael</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1342,13 +1346,14 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3</t>
+Camry 3,
+work w/ Josh</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
@@ -1738,7 +1743,11 @@
           <t>Josh S</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>work w/ Michael</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
@@ -1890,7 +1899,7 @@
         <is>
           <t>Driver, 1/2
 Gray Van,
-Train NasZire</t>
+work w/ Josh</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -2251,7 +2260,8 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ NasZire</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
@@ -2479,7 +2489,7 @@
       <c r="K33" t="inlineStr">
         <is>
           <t>@ Store,
-3rd Scan, Train w/ Michael</t>
+3rd Scan, Train w/ NasZire</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
@@ -3213,7 +3223,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3276,14 +3286,10 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
@@ -3352,10 +3358,14 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>

--- a/03-30-25 to 04-05-25 Madison Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Madison Schedule.xlsx
@@ -1449,7 +1449,11 @@
           <t>Josh S</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>work w/ Michael</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
@@ -1697,7 +1701,7 @@
         <is>
           <t>Driver, 1/2
 Silver Van,
-Train Sophia</t>
+work w/ Josh</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -1868,7 +1872,11 @@
           <t>Josh S</t>
         </is>
       </c>
-      <c r="W25" t="inlineStr"/>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>work w/ Justin</t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -1948,7 +1956,8 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>w/ Nate/Ev</t>
+          <t>w/ Nate/Ev,
+work w/ Josh</t>
         </is>
       </c>
       <c r="X26" t="inlineStr"/>

--- a/03-30-25 to 04-05-25 Madison Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Madison Schedule.xlsx
@@ -4073,7 +4073,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Shannon</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4117,21 +4117,9 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>

--- a/03-30-25 to 04-05-25 Madison Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y86"/>
+  <dimension ref="A1:Y89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2172,12 +2172,13 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store,
+work w/ NasZire</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
@@ -2204,13 +2205,12 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>@ Store,
-3rd week</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -2264,13 +2264,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ NasZire</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
@@ -2297,7 +2296,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2353,12 +2352,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
@@ -2379,9 +2378,22 @@
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>@ Store,
+3rd week</t>
+        </is>
+      </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
@@ -2429,12 +2441,13 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+3rd Scan, Train w/ NasZire</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
@@ -2454,9 +2467,21 @@
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
@@ -2492,13 +2517,13 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>@ Store,
-3rd Scan, Train w/ NasZire</t>
+3rd week</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
@@ -2506,13 +2531,21 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr"/>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
@@ -2540,13 +2573,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>@ Store,
-3rd week</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
@@ -2555,11 +2587,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2585,21 +2613,9 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>20)</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
@@ -2610,11 +2626,7 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>FESTIVAL #2725, MENASHA - LIFO</t>
-        </is>
-      </c>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
@@ -2659,7 +2671,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>1355 ONEIDA ST</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2692,7 +2704,11 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -2706,7 +2722,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/i2zDN3asp132</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2741,7 +2757,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2757,7 +2773,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>5:30 am meet for Sarah &amp; Lori at Pig Waupun</t>
+          <t>FESTIVAL #2725, MENASHA - LIFO</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2792,7 +2808,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1034 OSHKOSH</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2808,14 +2824,10 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/j4XjnfGU52i2moHbA</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>&lt;--Link for Pig Waupun</t>
-        </is>
-      </c>
+          <t>1355 ONEIDA ST</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
@@ -2843,7 +2855,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1034 OSHKOSH</t>
+          <t>855 N WESTHAVEN DRIVE</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2857,7 +2869,11 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/i2zDN3asp132</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
@@ -2895,7 +2911,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>855 N WESTHAVEN DRIVE</t>
+          <t>https://goo.gl/maps/ou1bNnEAEqhJBJAM8</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2904,21 +2920,13 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>5:30 am meet for Sarah &amp; Lori at Pig Waupun</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
@@ -2963,7 +2971,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ou1bNnEAEqhJBJAM8</t>
+          <t>Check in w/ Jeremiah after Aurora</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2984,19 +2992,15 @@
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>https://maps.app.goo.gl/j4XjnfGU52i2moHbA</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>@ Store w/ Lori</t>
+          <t>&lt;--Link for Pig Waupun</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
@@ -3046,7 +3050,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Check in w/ Jeremiah after Aurora</t>
+          <t>5:15 am meet for Sarah &amp; Lori at Pig Waupun</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -3068,21 +3072,9 @@
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>@ Waupun, Driver 1/2</t>
-        </is>
-      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
@@ -3131,10 +3123,14 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>5:15 am meet for Sarah &amp; Lori at Pig Waupun</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+          <t>https://maps.app.goo.gl/j4XjnfGU52i2moHbA</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>&lt;--Link for Pig Waupun</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
@@ -3150,17 +3146,17 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>Driver 1/2</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -3214,16 +3210,8 @@
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/j4XjnfGU52i2moHbA</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>&lt;--Link for Pig Waupun</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
@@ -3239,17 +3227,17 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store w/ Lori</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
@@ -3284,9 +3272,21 @@
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Driver, Equip</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
@@ -3302,17 +3302,17 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Waupun, Driver 1/2</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
@@ -3346,17 +3346,17 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Driver, Equip</t>
+          <t>@ Waupun</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -3378,17 +3378,17 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -3415,21 +3415,9 @@
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>@ Waupun</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
@@ -3450,12 +3438,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3493,12 +3481,12 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3527,7 +3515,11 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
@@ -3536,12 +3528,12 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3572,7 +3564,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3587,12 +3579,12 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3623,7 +3615,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>OSHKOSH FOOD CO-OP</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3638,12 +3630,12 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3674,7 +3666,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>OSHKOSH FOOD CO-OP</t>
+          <t>155 JACKSON ST, SUITE 101</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3689,12 +3681,12 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3725,7 +3717,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>155 JACKSON ST, SUITE 101</t>
+          <t>https://maps.app.goo.gl/es93zaJzLRirraGv8</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3740,12 +3732,12 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Nikki</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3770,11 +3762,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/es93zaJzLRirraGv8</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
@@ -3787,12 +3775,12 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -3828,9 +3816,21 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
@@ -3838,12 +3838,12 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -3877,17 +3877,17 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
@@ -3909,12 +3909,12 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -3948,12 +3948,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3974,9 +3974,21 @@
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Nikki</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -4008,12 +4020,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4034,9 +4046,21 @@
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
@@ -4066,21 +4090,9 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
@@ -4094,13 +4106,21 @@
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr"/>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
@@ -4134,11 +4154,7 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
@@ -4173,11 +4189,7 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>KELLEY #29, HARRISON MOBIL, ROCKFORD</t>
-        </is>
-      </c>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
@@ -4214,7 +4226,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>2624 STOWMARKET AVE</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -4245,7 +4257,7 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/TWcmQi6rhorxKU6J8</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -4276,7 +4288,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>*JEFF IS THE DM</t>
+          <t>KELLEY #29, HARRISON MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -4305,7 +4317,11 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>2624 STOWMARKET AVE</t>
+        </is>
+      </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
@@ -4331,21 +4347,13 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>Camry 3 available, Equip</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/TWcmQi6rhorxKU6J8</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
@@ -4370,14 +4378,10 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>*JEFF IS THE DM</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -4405,16 +4409,8 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
@@ -4442,15 +4438,19 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>Camry 3 available, Equip</t>
+        </is>
+      </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
@@ -4477,12 +4477,12 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -4512,12 +4512,12 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -4545,8 +4545,16 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
@@ -4572,8 +4580,16 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
@@ -4599,10 +4615,14 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
@@ -4631,11 +4651,7 @@
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
@@ -4662,11 +4678,7 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>KELLEY #09, BROADWAY MOBIL, ROCKFORD</t>
-        </is>
-      </c>
+      <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
@@ -4695,7 +4707,7 @@
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
         <is>
-          <t>2605 BROADWAY</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S78" t="inlineStr"/>
@@ -4726,7 +4738,7 @@
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/o8A3d3WmDrS2</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S79" t="inlineStr"/>
@@ -4757,7 +4769,7 @@
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr">
         <is>
-          <t>*6:15 am meet at office for this store  (limited parking)</t>
+          <t>KELLEY #09, BROADWAY MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S80" t="inlineStr"/>
@@ -4786,7 +4798,11 @@
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>2605 BROADWAY</t>
+        </is>
+      </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
@@ -4812,21 +4828,13 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/o8A3d3WmDrS2</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
@@ -4851,22 +4859,13 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>Driver,
-Gray Van</t>
-        </is>
-      </c>
+          <t>*6:15 am meet at office for this store  (limited parking)</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
@@ -4891,16 +4890,8 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>Laci</t>
-        </is>
-      </c>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
@@ -4928,15 +4919,19 @@
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
@@ -4963,17 +4958,18 @@
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Gray Van</t>
         </is>
       </c>
       <c r="T86" t="inlineStr"/>
@@ -4983,6 +4979,115 @@
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr"/>
     </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/03-30-25 to 04-05-25 Madison Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Madison Schedule.xlsx
@@ -555,7 +555,11 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>PLEASE READ NEW BULLETIN BOARD UPDATE!</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>

--- a/03-30-25 to 04-05-25 Madison Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Madison Schedule.xlsx
@@ -3072,7 +3072,7 @@
       <c r="O43" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van</t>
+Silver Van</t>
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
@@ -3436,7 +3436,7 @@
       <c r="O48" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van</t>
+Silver Van</t>
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>Camry 3 available, Equip</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="T70" t="inlineStr"/>
@@ -4973,7 +4973,7 @@
       <c r="S86" t="inlineStr">
         <is>
           <t>Driver,
-Gray Van</t>
+Camry 3</t>
         </is>
       </c>
       <c r="T86" t="inlineStr"/>

--- a/03-30-25 to 04-05-25 Madison Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Madison Schedule.xlsx
@@ -1001,7 +1001,11 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>*Michael / Angela -drop off Gray Van at Anderson Dodge in AM</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1051,21 +1055,9 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>@ Store, Optima, Equip</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
@@ -1124,18 +1116,17 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3</t>
+          <t>@ Store, Optima, Equip</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
@@ -1204,15 +1195,20 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3*</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1277,19 +1273,15 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>work w/ Michael</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1345,19 +1337,17 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3,
-work w/ Josh</t>
+          <t>work w/ Michael</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
@@ -1428,18 +1418,19 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>@ Store,
-Train Sophia</t>
+          <t>Driver, 1/2
+Camry 3*,
+work w/ Josh</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -1513,17 +1504,18 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Train Sophia</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -1608,18 +1600,17 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
@@ -1676,18 +1667,18 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
           <t>@ Store,
-Train Pamela</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -1759,17 +1750,18 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Train Pamela</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -1836,12 +1828,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1917,18 +1909,17 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -2006,17 +1997,18 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -2094,18 +2086,17 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>@ Store,
-5th Scan, work w/ Jerry</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -2188,17 +2179,18 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+5th Scan, work w/ Jerry</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
@@ -2279,12 +2271,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2367,18 +2359,17 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>@ Store,
-3rd week</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
@@ -2457,17 +2448,18 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+3rd week</t>
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
@@ -2531,9 +2523,21 @@
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
@@ -2622,11 +2626,7 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -2667,7 +2667,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>MAURER'S MARKET, WISCONSIN DELLS</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2769,7 +2769,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>216 WASHINGTON AVE</t>
+          <t>MAURER'S MARKET, WISCONSIN DELLS</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2820,7 +2820,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CXVPLJR1DyH2</t>
+          <t>216 WASHINGTON AVE</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2867,7 +2867,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:00 am at IL Office</t>
+          <t>https://goo.gl/maps/CXVPLJR1DyH2</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2921,7 +2921,11 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>*IL Meet is 5:00 am at IL Office</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
@@ -2980,21 +2984,9 @@
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
@@ -3061,18 +3053,17 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Silver Van</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
@@ -3138,15 +3129,20 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3219,12 +3215,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3294,12 +3290,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3366,19 +3362,15 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
@@ -3425,18 +3417,17 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Silver Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
@@ -3479,9 +3470,22 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
@@ -3574,11 +3578,7 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
@@ -3627,7 +3627,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3678,7 +3678,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>KELLEY #35, LYFORD MOBIL, ROCKFORD</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3729,7 +3729,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>8061 E STATE ST</t>
+          <t>KELLEY #35, LYFORD MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3772,7 +3772,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/kRn7nT8C7Vk</t>
+          <t>8061 E STATE ST</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3837,7 +3837,11 @@
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/kRn7nT8C7Vk</t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
@@ -3895,21 +3899,9 @@
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
@@ -3968,15 +3960,19 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
@@ -4040,12 +4036,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -4100,12 +4096,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -4147,12 +4143,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -4182,12 +4178,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -4217,12 +4213,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4254,8 +4250,16 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>

--- a/03-30-25 to 04-05-25 Madison Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y89"/>
+  <dimension ref="A1:Y88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2539,21 +2539,9 @@
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
@@ -2630,7 +2618,11 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
@@ -2675,7 +2667,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2726,7 +2718,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2725, MENASHA - LIFO</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2777,7 +2769,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>FESTIVAL #2725, MENASHA - LIFO</t>
+          <t>1355 ONEIDA ST</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2828,7 +2820,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>1355 ONEIDA ST</t>
+          <t>https://goo.gl/maps/i2zDN3asp132</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2875,7 +2867,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/i2zDN3asp132</t>
+          <t>5:30 am meet for Sarah &amp; Lori at Pig Waupun</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2931,10 +2923,14 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>5:30 am meet for Sarah &amp; Lori at Pig Waupun</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr"/>
+          <t>https://maps.app.goo.gl/j4XjnfGU52i2moHbA</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>&lt;--Link for Pig Waupun</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
@@ -2989,16 +2985,8 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/j4XjnfGU52i2moHbA</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>&lt;--Link for Pig Waupun</t>
-        </is>
-      </c>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
@@ -3067,9 +3055,21 @@
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
@@ -3146,17 +3146,17 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store w/ Lori</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -3227,17 +3227,17 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>@ Store w/ Lori</t>
+          <t>@ Waupun, Driver 1/2</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
@@ -3302,17 +3302,17 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>@ Waupun, Driver 1/2</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
@@ -3374,17 +3374,17 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Driver 1/2</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -3433,12 +3433,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3489,12 +3489,12 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3536,12 +3536,12 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3583,12 +3583,12 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3634,12 +3634,12 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3685,12 +3685,12 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3736,12 +3736,12 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3779,12 +3779,12 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -3846,12 +3846,12 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -3905,12 +3905,12 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Nikki</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -3976,12 +3976,12 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Nikki</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -4048,12 +4048,12 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -4106,21 +4106,9 @@
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
@@ -4189,7 +4177,11 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
@@ -4226,7 +4218,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -4265,7 +4257,7 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #29, HARRISON MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -4296,7 +4288,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>KELLEY #29, HARRISON MOBIL, ROCKFORD</t>
+          <t>2624 STOWMARKET AVE</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -4327,7 +4319,7 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>2624 STOWMARKET AVE</t>
+          <t>https://maps.app.goo.gl/TWcmQi6rhorxKU6J8</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -4358,7 +4350,7 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/TWcmQi6rhorxKU6J8</t>
+          <t>*JEFF IS THE DM</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -4387,11 +4379,7 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>*JEFF IS THE DM</t>
-        </is>
-      </c>
+      <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
@@ -4417,9 +4405,21 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
@@ -4446,19 +4446,15 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
@@ -4485,12 +4481,12 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -4520,12 +4516,12 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -4555,12 +4551,12 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -4590,12 +4586,12 @@
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -4623,16 +4619,8 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
@@ -4686,7 +4674,11 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
@@ -4715,7 +4707,7 @@
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S78" t="inlineStr"/>
@@ -4746,7 +4738,7 @@
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #09, BROADWAY MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S79" t="inlineStr"/>
@@ -4777,7 +4769,7 @@
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr">
         <is>
-          <t>KELLEY #09, BROADWAY MOBIL, ROCKFORD</t>
+          <t>2605 BROADWAY</t>
         </is>
       </c>
       <c r="S80" t="inlineStr"/>
@@ -4808,7 +4800,7 @@
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr">
         <is>
-          <t>2605 BROADWAY</t>
+          <t>https://goo.gl/maps/o8A3d3WmDrS2</t>
         </is>
       </c>
       <c r="S81" t="inlineStr"/>
@@ -4839,7 +4831,7 @@
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/o8A3d3WmDrS2</t>
+          <t>*6:15 am meet at office for this store  (limited parking)</t>
         </is>
       </c>
       <c r="S82" t="inlineStr"/>
@@ -4868,11 +4860,7 @@
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>*6:15 am meet at office for this store  (limited parking)</t>
-        </is>
-      </c>
+      <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
@@ -4898,9 +4886,21 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
@@ -4927,17 +4927,18 @@
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Camry 3</t>
         </is>
       </c>
       <c r="T85" t="inlineStr"/>
@@ -4966,20 +4967,15 @@
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry 3</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
@@ -5006,12 +5002,12 @@
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="S87" t="inlineStr"/>
@@ -5041,15 +5037,19 @@
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
@@ -5057,45 +5057,6 @@
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr"/>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr"/>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
